--- a/doc/小组log日志/201708044102lmy.xlsx
+++ b/doc/小组log日志/201708044102lmy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>日期时间</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t xml:space="preserve">          完成Service层orderManager的单元测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/5/29 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           为order添加另一个实体types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/5/30 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           为order添加另一个实体types（继续）</t>
   </si>
 </sst>
 </file>
@@ -111,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1051,10 +1063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1183,6 +1195,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044102lmy.xlsx
+++ b/doc/小组log日志/201708044102lmy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>日期时间</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t xml:space="preserve">           为order添加另一个实体types（继续）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/5/31 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         修改Service层order模块，写配置管理计划书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/6/1 20:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 修改并提交配置管理计划书</t>
   </si>
 </sst>
 </file>
@@ -123,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1063,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1211,6 +1223,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044102lmy.xlsx
+++ b/doc/小组log日志/201708044102lmy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>日期时间</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t xml:space="preserve">                 修改并提交配置管理计划书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/6/4 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   修改配置计划管理书</t>
   </si>
 </sst>
 </file>
@@ -135,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1075,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1239,6 +1245,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044102lmy.xlsx
+++ b/doc/小组log日志/201708044102lmy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowWidth="21000" windowHeight="8507"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>日期时间</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t xml:space="preserve">                   修改配置计划管理书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/6/9 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                学习tomcat部署web项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/6/10 9:00-11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              小组讨论业务模块、实体联系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/6/11 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    更新配置计划管理书</t>
   </si>
 </sst>
 </file>
@@ -141,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -156,7 +174,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,46 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,66 +304,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +326,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,19 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,90 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,41 +520,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,26 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +567,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1253,6 +1271,30 @@
         <v>39</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044102lmy.xlsx
+++ b/doc/小组log日志/201708044102lmy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>日期时间</t>
   </si>
@@ -152,6 +152,30 @@
   </si>
   <si>
     <t xml:space="preserve">                    更新配置计划管理书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/6/17 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               在client中添加order链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/6/18 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/6/26 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 修改OrderController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2019/6/27 21:00-23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  更新配置计划管理书</t>
   </si>
 </sst>
 </file>
@@ -159,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -174,7 +198,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +282,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -205,35 +306,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -254,56 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,25 +350,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,78 +507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,11 +544,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +594,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,56 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1295,6 +1319,38 @@
         <v>45</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
